--- a/Supplementary_materials/Supplementary Table 4.xlsx
+++ b/Supplementary_materials/Supplementary Table 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonguo/myDocuments/研究生/STAT department documents/MATH 581 directed studies/20201205/论文supplement material/正式/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonguo/myDocuments/git_local_repo/COVIDnetwork/Supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A14136EC-3391-AE43-8552-CE7526B555B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A0131-20F6-B140-ADB7-92FDF3AB4473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="4900" windowWidth="27640" windowHeight="16940" xr2:uid="{F0CD8362-DBC8-CA48-8559-1CEDD5DB8273}"/>
+    <workbookView xWindow="3600" yWindow="1740" windowWidth="27640" windowHeight="16940" xr2:uid="{F0CD8362-DBC8-CA48-8559-1CEDD5DB8273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,557 +37,185 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>P12931</t>
   </si>
   <si>
-    <t>SRC</t>
-  </si>
-  <si>
-    <t>Proto-oncogene tyrosine-protein kinase Src</t>
-  </si>
-  <si>
     <t>P23458</t>
   </si>
   <si>
-    <t>JAK1</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase JAK1</t>
-  </si>
-  <si>
     <t>O60674</t>
   </si>
   <si>
     <t>JAK2</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase JAK2</t>
-  </si>
-  <si>
     <t>P00519</t>
   </si>
   <si>
-    <t>ABL1</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase ABL1</t>
-  </si>
-  <si>
     <t>P07949</t>
   </si>
   <si>
-    <t>RET</t>
-  </si>
-  <si>
-    <t>Proto-oncogene tyrosine-protein kinase receptor Ret</t>
-  </si>
-  <si>
     <t>Q06418</t>
   </si>
   <si>
-    <t>TYRO3</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase receptor TYRO3</t>
-  </si>
-  <si>
     <t>P42679</t>
   </si>
   <si>
-    <t>MATK</t>
-  </si>
-  <si>
-    <t>Megakaryocyte-associated tyrosine-protein kinase</t>
-  </si>
-  <si>
     <t>P52333</t>
   </si>
   <si>
     <t>JAK3</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase JAK3</t>
-  </si>
-  <si>
     <t>P29597</t>
   </si>
   <si>
     <t>TYK2</t>
   </si>
   <si>
-    <t>Non-receptor tyrosine-protein kinase TYK2</t>
-  </si>
-  <si>
     <t>P36888</t>
   </si>
   <si>
-    <t>FLT3</t>
-  </si>
-  <si>
-    <t>Receptor-type tyrosine-protein kinase FLT3</t>
-  </si>
-  <si>
     <t>P09769</t>
   </si>
   <si>
-    <t>FGR</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase Fgr</t>
-  </si>
-  <si>
     <t>P07947</t>
   </si>
   <si>
-    <t>YES1</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase Yes</t>
-  </si>
-  <si>
     <t>P42681</t>
   </si>
   <si>
-    <t>TXK</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase TXK</t>
-  </si>
-  <si>
-    <t>P54577</t>
-  </si>
-  <si>
-    <t>YARS1</t>
-  </si>
-  <si>
-    <t>Tyrosine--tRNA ligase - cytoplasmic</t>
-  </si>
-  <si>
     <t>P07948</t>
   </si>
   <si>
-    <t>LYN</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase Lyn</t>
-  </si>
-  <si>
     <t>P06239</t>
   </si>
   <si>
     <t>LCK</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase Lck</t>
-  </si>
-  <si>
     <t>Q06187</t>
   </si>
   <si>
-    <t>BTK</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase BTK</t>
-  </si>
-  <si>
     <t>P06241</t>
   </si>
   <si>
     <t>FYN</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase Fyn</t>
-  </si>
-  <si>
     <t>P41240</t>
   </si>
   <si>
     <t>CSK</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase CSK</t>
-  </si>
-  <si>
     <t>P42680</t>
   </si>
   <si>
-    <t>TEC</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase Tec</t>
-  </si>
-  <si>
     <t>P51451</t>
   </si>
   <si>
     <t>BLK</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase Blk</t>
-  </si>
-  <si>
     <t>Q6XUX3</t>
   </si>
   <si>
-    <t>DSTYK</t>
-  </si>
-  <si>
-    <t>Dual serine/threonine and tyrosine protein kinase</t>
-  </si>
-  <si>
     <t>P08631</t>
   </si>
   <si>
     <t>HCK</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase HCK</t>
-  </si>
-  <si>
     <t>Q08881</t>
   </si>
   <si>
-    <t>ITK</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase ITK/TSK</t>
-  </si>
-  <si>
     <t>P51813</t>
   </si>
   <si>
     <t>BMX</t>
   </si>
   <si>
-    <t>Cytoplasmic tyrosine-protein kinase BMX</t>
-  </si>
-  <si>
     <t>Q9H3Y6</t>
   </si>
   <si>
-    <t>SRMS</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase Srms</t>
-  </si>
-  <si>
     <t>P42684</t>
   </si>
   <si>
-    <t>ABL2</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase ABL2</t>
-  </si>
-  <si>
     <t>P42685</t>
   </si>
   <si>
-    <t>FRK</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase FRK</t>
-  </si>
-  <si>
     <t>P43405</t>
   </si>
   <si>
     <t>SYK</t>
   </si>
   <si>
-    <t>Tyrosine-protein kinase SYK</t>
-  </si>
-  <si>
     <t>P43403</t>
   </si>
   <si>
-    <t>ZAP70</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase ZAP-70</t>
-  </si>
-  <si>
     <t>Q13882</t>
   </si>
   <si>
-    <t>PTK6</t>
-  </si>
-  <si>
-    <t>Protein-tyrosine kinase 6</t>
-  </si>
-  <si>
     <t>Q6J9G0</t>
   </si>
   <si>
-    <t>STYK1</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase STYK1</t>
-  </si>
-  <si>
-    <t>Q01973</t>
-  </si>
-  <si>
-    <t>ROR1</t>
-  </si>
-  <si>
-    <t>Inactive tyrosine-protein kinase transmembrane receptor ROR1</t>
-  </si>
-  <si>
     <t>Q504Y2</t>
   </si>
   <si>
-    <t>PKDCC</t>
-  </si>
-  <si>
-    <t>Extracellular tyrosine-protein kinase PKDCC</t>
-  </si>
-  <si>
     <t>P35590</t>
   </si>
   <si>
-    <t>TIE1</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase receptor Tie-1</t>
-  </si>
-  <si>
     <t>Q12866</t>
   </si>
   <si>
-    <t>MERTK</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase Mer</t>
-  </si>
-  <si>
     <t>O15146</t>
   </si>
   <si>
     <t>MUSK</t>
   </si>
   <si>
-    <t>Muscle - skeletal receptor tyrosine-protein kinase</t>
-  </si>
-  <si>
-    <t>Q13308</t>
-  </si>
-  <si>
-    <t>PTK7</t>
-  </si>
-  <si>
-    <t>Inactive tyrosine-protein kinase 7</t>
-  </si>
-  <si>
     <t>P30530</t>
   </si>
   <si>
-    <t>AXL</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase receptor UFO</t>
-  </si>
-  <si>
     <t>Q13627</t>
   </si>
   <si>
-    <t>DYRK1A</t>
-  </si>
-  <si>
-    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 1A</t>
-  </si>
-  <si>
     <t>Q92630</t>
   </si>
   <si>
     <t>DYRK2</t>
   </si>
   <si>
-    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 2</t>
-  </si>
-  <si>
-    <t>Q8WUJ0</t>
-  </si>
-  <si>
-    <t>STYX</t>
-  </si>
-  <si>
-    <t>Serine/threonine/tyrosine-interacting protein</t>
-  </si>
-  <si>
     <t>P04626</t>
   </si>
   <si>
-    <t>ERBB2</t>
-  </si>
-  <si>
-    <t>Receptor tyrosine-protein kinase erbB-2</t>
-  </si>
-  <si>
-    <t>Q9Y6J8</t>
-  </si>
-  <si>
-    <t>STYXL1</t>
-  </si>
-  <si>
-    <t>Serine/threonine/tyrosine-interacting-like protein 1</t>
-  </si>
-  <si>
-    <t>P56180</t>
-  </si>
-  <si>
-    <t>TPTE</t>
-  </si>
-  <si>
-    <t>Putative tyrosine-protein phosphatase TPTE</t>
-  </si>
-  <si>
-    <t>P08575</t>
-  </si>
-  <si>
-    <t>PTPRC</t>
-  </si>
-  <si>
-    <t>Receptor-type tyrosine-protein phosphatase C</t>
-  </si>
-  <si>
     <t>Q9UIG0</t>
   </si>
   <si>
-    <t>BAZ1B</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein kinase BAZ1B</t>
-  </si>
-  <si>
     <t>O43781</t>
   </si>
   <si>
     <t>DYRK3</t>
   </si>
   <si>
-    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 3</t>
-  </si>
-  <si>
     <t>Q9NR20</t>
   </si>
   <si>
     <t>DYRK4</t>
   </si>
   <si>
-    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 4</t>
-  </si>
-  <si>
     <t>Q9Y463</t>
   </si>
   <si>
-    <t>DYRK1B</t>
-  </si>
-  <si>
-    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 1B</t>
-  </si>
-  <si>
-    <t>Q5VZP5</t>
-  </si>
-  <si>
-    <t>STYXL2</t>
-  </si>
-  <si>
-    <t>Serine/threonine/tyrosine-interacting-like protein 2</t>
-  </si>
-  <si>
-    <t>P18031</t>
-  </si>
-  <si>
-    <t>PTPN1</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein phosphatase non-receptor type 1</t>
-  </si>
-  <si>
-    <t>Q06124</t>
-  </si>
-  <si>
-    <t>PTPN11</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein phosphatase non-receptor type 11</t>
-  </si>
-  <si>
-    <t>A2A3K4</t>
-  </si>
-  <si>
-    <t>PTPDC1</t>
-  </si>
-  <si>
-    <t>Protein tyrosine phosphatase domain-containing protein 1</t>
-  </si>
-  <si>
-    <t>P17706</t>
-  </si>
-  <si>
-    <t>PTPN2</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein phosphatase non-receptor type 2</t>
-  </si>
-  <si>
-    <t>Q05209</t>
-  </si>
-  <si>
-    <t>PTPN12</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein phosphatase non-receptor type 12</t>
-  </si>
-  <si>
-    <t>P29350</t>
-  </si>
-  <si>
-    <t>PTPN6</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein phosphatase non-receptor type 6</t>
-  </si>
-  <si>
-    <t>Q9H3S7</t>
-  </si>
-  <si>
-    <t>PTPN23</t>
-  </si>
-  <si>
-    <t>Tyrosine-protein phosphatase non-receptor type 23</t>
-  </si>
-  <si>
     <t>P21860</t>
   </si>
   <si>
-    <t>ERBB3</t>
-  </si>
-  <si>
-    <t>Receptor tyrosine-protein kinase erbB-3</t>
-  </si>
-  <si>
     <t>Q15303</t>
   </si>
   <si>
-    <t>ERBB4</t>
-  </si>
-  <si>
-    <t>Receptor tyrosine-protein kinase erbB-4</t>
-  </si>
-  <si>
-    <t>Q99640</t>
-  </si>
-  <si>
-    <t>PKMYT1</t>
-  </si>
-  <si>
-    <t>Membrane-associated tyrosine- and threonine-specific cdc2-inhibitory kinase</t>
-  </si>
-  <si>
     <t>UniProt ID</t>
   </si>
   <si>
@@ -595,6 +223,594 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>P08581</t>
+  </si>
+  <si>
+    <t>P10721</t>
+  </si>
+  <si>
+    <t>P00533</t>
+  </si>
+  <si>
+    <t>P11362</t>
+  </si>
+  <si>
+    <t>P29320</t>
+  </si>
+  <si>
+    <t>P29322</t>
+  </si>
+  <si>
+    <t>P29323</t>
+  </si>
+  <si>
+    <t>P35916</t>
+  </si>
+  <si>
+    <t>P35968</t>
+  </si>
+  <si>
+    <t>P29317</t>
+  </si>
+  <si>
+    <t>P17948</t>
+  </si>
+  <si>
+    <t>P21709</t>
+  </si>
+  <si>
+    <t>P54753</t>
+  </si>
+  <si>
+    <t>P54760</t>
+  </si>
+  <si>
+    <t>P54762</t>
+  </si>
+  <si>
+    <t>P54764</t>
+  </si>
+  <si>
+    <t>Q02763</t>
+  </si>
+  <si>
+    <t>Q05397</t>
+  </si>
+  <si>
+    <t>P33981</t>
+  </si>
+  <si>
+    <t>Q5JZY3</t>
+  </si>
+  <si>
+    <t>P36507</t>
+  </si>
+  <si>
+    <t>P30291</t>
+  </si>
+  <si>
+    <t>Q96S53</t>
+  </si>
+  <si>
+    <t>Q9UF33</t>
+  </si>
+  <si>
+    <t>Q13163</t>
+  </si>
+  <si>
+    <t>Q02750</t>
+  </si>
+  <si>
+    <t>P08069</t>
+  </si>
+  <si>
+    <t>P09619</t>
+  </si>
+  <si>
+    <t>P06213</t>
+  </si>
+  <si>
+    <t>P07333</t>
+  </si>
+  <si>
+    <t>P14616</t>
+  </si>
+  <si>
+    <t>P16234</t>
+  </si>
+  <si>
+    <t>P21802</t>
+  </si>
+  <si>
+    <t>P22455</t>
+  </si>
+  <si>
+    <t>P22607</t>
+  </si>
+  <si>
+    <t>P54756</t>
+  </si>
+  <si>
+    <t>Q15569</t>
+  </si>
+  <si>
+    <t>Q15375</t>
+  </si>
+  <si>
+    <t>P0C1S8</t>
+  </si>
+  <si>
+    <t>O14733</t>
+  </si>
+  <si>
+    <t>BAZ1B WBSC10 WBSCR10 WBSCR9 WSTF</t>
+  </si>
+  <si>
+    <t>SRMS C20orf148</t>
+  </si>
+  <si>
+    <t>DYRK1B MIRK</t>
+  </si>
+  <si>
+    <t>DSTYK KIAA0472 RIP5 RIPK5 SGK496 HDCMD38P</t>
+  </si>
+  <si>
+    <t>DYRK1A DYRK MNB MNBH</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>SRC SRC1</t>
+  </si>
+  <si>
+    <t>FGR SRC2</t>
+  </si>
+  <si>
+    <t>KIT SCFR</t>
+  </si>
+  <si>
+    <t>RET CDHF12 CDHR16 PTC RET51</t>
+  </si>
+  <si>
+    <t>LYN JTK8</t>
+  </si>
+  <si>
+    <t>ABL1 ABL JTK7</t>
+  </si>
+  <si>
+    <t>EGFR ERBB ERBB1 HER1</t>
+  </si>
+  <si>
+    <t>ERBB2 HER2 MLN19 NEU NGL</t>
+  </si>
+  <si>
+    <t>YES1 YES</t>
+  </si>
+  <si>
+    <t>FGFR1 BFGFR CEK FGFBR FLG FLT2 HBGFR</t>
+  </si>
+  <si>
+    <t>EPHA3 ETK ETK1 HEK TYRO4</t>
+  </si>
+  <si>
+    <t>EPHA8 EEK HEK3 KIAA1459</t>
+  </si>
+  <si>
+    <t>EPHB2 DRT EPHT3 EPTH3 ERK HEK5 TYRO5</t>
+  </si>
+  <si>
+    <t>AXL UFO</t>
+  </si>
+  <si>
+    <t>TIE1 TIE</t>
+  </si>
+  <si>
+    <t>FLT4 VEGFR3</t>
+  </si>
+  <si>
+    <t>KDR FLK1 VEGFR2</t>
+  </si>
+  <si>
+    <t>EPHA2 ECK</t>
+  </si>
+  <si>
+    <t>FLT1 FLT FRT VEGFR1</t>
+  </si>
+  <si>
+    <t>EPHA1 EPH EPHT EPHT1</t>
+  </si>
+  <si>
+    <t>JAK1 JAK1A JAK1B</t>
+  </si>
+  <si>
+    <t>FLT3 CD135 FLK2 STK1</t>
+  </si>
+  <si>
+    <t>EPHB3 ETK2 HEK2 TYRO6</t>
+  </si>
+  <si>
+    <t>EPHB4 HTK MYK1 TYRO11</t>
+  </si>
+  <si>
+    <t>EPHB1 ELK EPHT2 HEK6 NET</t>
+  </si>
+  <si>
+    <t>EPHA4 HEK8 SEK TYRO1</t>
+  </si>
+  <si>
+    <t>PKDCC SGK493 VLK</t>
+  </si>
+  <si>
+    <t>FRK PTK5 RAK</t>
+  </si>
+  <si>
+    <t>ZAP70 SRK</t>
+  </si>
+  <si>
+    <t>STYK1 NOK</t>
+  </si>
+  <si>
+    <t>TEK TIE2 VMCM VMCM1</t>
+  </si>
+  <si>
+    <t>BTK AGMX1 ATK BPK</t>
+  </si>
+  <si>
+    <t>TYRO3 BYK DTK RSE SKY TIF</t>
+  </si>
+  <si>
+    <t>ITK EMT LYK</t>
+  </si>
+  <si>
+    <t>MERTK MER</t>
+  </si>
+  <si>
+    <t>PTK6 BRK</t>
+  </si>
+  <si>
+    <t>ABL2 ABLL ARG</t>
+  </si>
+  <si>
+    <t>MATK CTK HYL</t>
+  </si>
+  <si>
+    <t>TEC PSCTK4</t>
+  </si>
+  <si>
+    <t>TXK PTK4 RLK</t>
+  </si>
+  <si>
+    <t>ERBB4 HER4</t>
+  </si>
+  <si>
+    <t>PTK2 FAK FAK1</t>
+  </si>
+  <si>
+    <t>TTK MPS1 MPS1L1</t>
+  </si>
+  <si>
+    <t>ERBB3 HER3</t>
+  </si>
+  <si>
+    <t>EPHA10</t>
+  </si>
+  <si>
+    <t>MAP2K2 MEK2 MKK2 PRKMK2</t>
+  </si>
+  <si>
+    <t>WEE1</t>
+  </si>
+  <si>
+    <t>TESK2</t>
+  </si>
+  <si>
+    <t>EPHA6 EHK2 HEK12</t>
+  </si>
+  <si>
+    <t>MAP2K5 MEK5 MKK5 PRKMK5</t>
+  </si>
+  <si>
+    <t>MAP2K1 MEK1 PRKMK1</t>
+  </si>
+  <si>
+    <t>IGF1R</t>
+  </si>
+  <si>
+    <t>PDGFRB PDGFR PDGFR1</t>
+  </si>
+  <si>
+    <t>INSR</t>
+  </si>
+  <si>
+    <t>CSF1R FMS</t>
+  </si>
+  <si>
+    <t>INSRR IRR</t>
+  </si>
+  <si>
+    <t>PDGFRA PDGFR2 RHEPDGFRA</t>
+  </si>
+  <si>
+    <t>FGFR2 BEK KGFR KSAM</t>
+  </si>
+  <si>
+    <t>FGFR4 JTK2 TKF</t>
+  </si>
+  <si>
+    <t>FGFR3 JTK4</t>
+  </si>
+  <si>
+    <t>EPHA5 BSK EHK1 HEK7 TYRO4</t>
+  </si>
+  <si>
+    <t>TESK1</t>
+  </si>
+  <si>
+    <t>EPHA7 EHK3 HEK11</t>
+  </si>
+  <si>
+    <t>WEE2 WEE1B</t>
+  </si>
+  <si>
+    <t>MAP2K7 JNKK2 MEK7 MKK7 PRKMK7 SKK4</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase BAZ1B (EC 2.7.10.2) (Bromodomain adjacent to zinc finger domain protein 1B) (Williams syndrome transcription factor) (Williams-Beuren syndrome chromosomal region 10 protein) (Williams-Beuren syndrome chromosomal region 9 protein) (hWALp2)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Blk (EC 2.7.10.2) (B lymphocyte kinase) (p55-Blk)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Srms (EC 2.7.10.2)</t>
+  </si>
+  <si>
+    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 3 (EC 2.7.12.1) (Regulatory erythroid kinase) (REDK)</t>
+  </si>
+  <si>
+    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 2 (EC 2.7.12.1)</t>
+  </si>
+  <si>
+    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 1B (EC 2.7.12.1) (Minibrain-related kinase) (Mirk protein kinase)</t>
+  </si>
+  <si>
+    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 4 (EC 2.7.12.1)</t>
+  </si>
+  <si>
+    <t>Dual serine/threonine and tyrosine protein kinase (EC 2.7.12.1) (Dusty protein kinase) (Dusty PK) (RIP-homologous kinase) (Receptor-interacting serine/threonine-protein kinase 5) (Sugen kinase 496) (SgK496)</t>
+  </si>
+  <si>
+    <t>Dual specificity tyrosine-phosphorylation-regulated kinase 1A (EC 2.7.12.1) (Dual specificity YAK1-related kinase) (HP86) (Protein kinase minibrain homolog) (MNBH) (hMNB)</t>
+  </si>
+  <si>
+    <t>Hepatocyte growth factor receptor (HGF receptor) (EC 2.7.10.1) (HGF/SF receptor) (Proto-oncogene c-Met) (Scatter factor receptor) (SF receptor) (Tyrosine-protein kinase Met)</t>
+  </si>
+  <si>
+    <t>Proto-oncogene tyrosine-protein kinase Src (EC 2.7.10.2) (Proto-oncogene c-Src) (pp60c-src) (p60-Src)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase HCK (EC 2.7.10.2) (Hematopoietic cell kinase) (Hemopoietic cell kinase) (p59-HCK/p60-HCK) (p59Hck) (p61Hck)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Fgr (EC 2.7.10.2) (Gardner-Rasheed feline sarcoma viral (v-fgr) oncogene homolog) (Proto-oncogene c-Fgr) (p55-Fgr) (p58-Fgr) (p58c-Fgr)</t>
+  </si>
+  <si>
+    <t>Mast/stem cell growth factor receptor Kit (SCFR) (EC 2.7.10.1) (Piebald trait protein) (PBT) (Proto-oncogene c-Kit) (Tyrosine-protein kinase Kit) (p145 c-kit) (v-kit Hardy-Zuckerman 4 feline sarcoma viral oncogene homolog) (CD antigen CD117)</t>
+  </si>
+  <si>
+    <t>Proto-oncogene tyrosine-protein kinase receptor Ret (EC 2.7.10.1) (Cadherin family member 12) (Proto-oncogene c-Ret) [Cleaved into: Soluble RET kinase fragment; Extracellular cell-membrane anchored RET cadherin 120 kDa fragment]</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Lyn (EC 2.7.10.2) (Lck/Yes-related novel protein tyrosine kinase) (V-yes-1 Yamaguchi sarcoma viral related oncogene homolog) (p53Lyn) (p56Lyn)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase ABL1 (EC 2.7.10.2) (Abelson murine leukemia viral oncogene homolog 1) (Abelson tyrosine-protein kinase 1) (Proto-oncogene c-Abl) (p150)</t>
+  </si>
+  <si>
+    <t>Epidermal growth factor receptor (EC 2.7.10.1) (Proto-oncogene c-ErbB-1) (Receptor tyrosine-protein kinase erbB-1)</t>
+  </si>
+  <si>
+    <t>Receptor tyrosine-protein kinase erbB-2 (EC 2.7.10.1) (Metastatic lymph node gene 19 protein) (MLN 19) (Proto-oncogene Neu) (Proto-oncogene c-ErbB-2) (Tyrosine kinase-type cell surface receptor HER2) (p185erbB2) (CD antigen CD340)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Lck (EC 2.7.10.2) (Leukocyte C-terminal Src kinase) (LSK) (Lymphocyte cell-specific protein-tyrosine kinase) (Protein YT16) (Proto-oncogene Lck) (T cell-specific protein-tyrosine kinase) (p56-LCK)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Fyn (EC 2.7.10.2) (Proto-oncogene Syn) (Proto-oncogene c-Fyn) (Src-like kinase) (SLK) (p59-Fyn)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Yes (EC 2.7.10.2) (Proto-oncogene c-Yes) (p61-Yes)</t>
+  </si>
+  <si>
+    <t>Fibroblast growth factor receptor 1 (FGFR-1) (EC 2.7.10.1) (Basic fibroblast growth factor receptor 1) (BFGFR) (bFGF-R-1) (Fms-like tyrosine kinase 2) (FLT-2) (N-sam) (Proto-oncogene c-Fgr) (CD antigen CD331)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 3 (EC 2.7.10.1) (EPH-like kinase 4) (EK4) (hEK4) (HEK) (Human embryo kinase) (Tyrosine-protein kinase TYRO4) (Tyrosine-protein kinase receptor ETK1) (Eph-like tyrosine kinase 1)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 8 (EC 2.7.10.1) (EPH- and ELK-related kinase) (EPH-like kinase 3) (EK3) (hEK3) (Tyrosine-protein kinase receptor EEK)</t>
+  </si>
+  <si>
+    <t>Ephrin type-B receptor 2 (EC 2.7.10.1) (Developmentally-regulated Eph-related tyrosine kinase) (ELK-related tyrosine kinase) (EPH tyrosine kinase 3) (EPH-like kinase 5) (EK5) (hEK5) (Renal carcinoma antigen NY-REN-47) (Tyrosine-protein kinase TYRO5) (Tyrosine-protein kinase receptor EPH-3) [Cleaved into: EphB2/CTF1; EphB2/CTF2]</t>
+  </si>
+  <si>
+    <t>Non-receptor tyrosine-protein kinase TYK2 (EC 2.7.10.2)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase receptor UFO (EC 2.7.10.1) (AXL oncogene)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase receptor Tie-1 (EC 2.7.10.1)</t>
+  </si>
+  <si>
+    <t>Vascular endothelial growth factor receptor 3 (VEGFR-3) (EC 2.7.10.1) (Fms-like tyrosine kinase 4) (FLT-4) (Tyrosine-protein kinase receptor FLT4)</t>
+  </si>
+  <si>
+    <t>Vascular endothelial growth factor receptor 2 (VEGFR-2) (EC 2.7.10.1) (Fetal liver kinase 1) (FLK-1) (Kinase insert domain receptor) (KDR) (Protein-tyrosine kinase receptor flk-1) (CD antigen CD309)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 2 (EC 2.7.10.1) (Epithelial cell kinase) (Tyrosine-protein kinase receptor ECK)</t>
+  </si>
+  <si>
+    <t>Vascular endothelial growth factor receptor 1 (VEGFR-1) (EC 2.7.10.1) (Fms-like tyrosine kinase 1) (FLT-1) (Tyrosine-protein kinase FRT) (Tyrosine-protein kinase receptor FLT) (FLT) (Vascular permeability factor receptor)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 1 (hEpha1) (EC 2.7.10.1) (EPH tyrosine kinase) (EPH tyrosine kinase 1) (Erythropoietin-producing hepatoma receptor) (Tyrosine-protein kinase receptor EPH)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase JAK1 (EC 2.7.10.2) (Janus kinase 1) (JAK-1)</t>
+  </si>
+  <si>
+    <t>Muscle, skeletal receptor tyrosine-protein kinase (EC 2.7.10.1) (Muscle-specific tyrosine-protein kinase receptor) (MuSK) (Muscle-specific kinase receptor)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase JAK2 (EC 2.7.10.2) (Janus kinase 2) (JAK-2)</t>
+  </si>
+  <si>
+    <t>Receptor-type tyrosine-protein kinase FLT3 (EC 2.7.10.1) (FL cytokine receptor) (Fetal liver kinase-2) (FLK-2) (Fms-like tyrosine kinase 3) (FLT-3) (Stem cell tyrosine kinase 1) (STK-1) (CD antigen CD135)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase CSK (EC 2.7.10.2) (C-Src kinase) (Protein-tyrosine kinase CYL)</t>
+  </si>
+  <si>
+    <t>Ephrin type-B receptor 3 (EC 2.7.10.1) (EPH-like tyrosine kinase 2) (EPH-like kinase 2) (Embryonic kinase 2) (EK2) (hEK2) (Tyrosine-protein kinase TYRO6)</t>
+  </si>
+  <si>
+    <t>Ephrin type-B receptor 4 (EC 2.7.10.1) (Hepatoma transmembrane kinase) (Tyrosine-protein kinase TYRO11)</t>
+  </si>
+  <si>
+    <t>Ephrin type-B receptor 1 (EC 2.7.10.1) (ELK) (EPH tyrosine kinase 2) (EPH-like kinase 6) (EK6) (hEK6) (Neuronally-expressed EPH-related tyrosine kinase) (NET) (Tyrosine-protein kinase receptor EPH-2)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 4 (EC 2.7.10.1) (EPH-like kinase 8) (EK8) (hEK8) (Tyrosine-protein kinase TYRO1) (Tyrosine-protein kinase receptor SEK)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase JAK3 (EC 2.7.10.2) (Janus kinase 3) (JAK-3) (Leukocyte janus kinase) (L-JAK)</t>
+  </si>
+  <si>
+    <t>Extracellular tyrosine-protein kinase PKDCC (EC 2.7.10.2) (Protein kinase domain-containing protein, cytoplasmic) (Protein kinase-like protein SgK493) (Sugen kinase 493) (Vertebrate lonesome kinase)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase FRK (EC 2.7.10.2) (FYN-related kinase) (Nuclear tyrosine protein kinase RAK) (Protein-tyrosine kinase 5)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase ZAP-70 (EC 2.7.10.2) (70 kDa zeta-chain associated protein) (Syk-related tyrosine kinase)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase SYK (EC 2.7.10.2) (Spleen tyrosine kinase) (p72-Syk)</t>
+  </si>
+  <si>
+    <t>Cytoplasmic tyrosine-protein kinase BMX (EC 2.7.10.2) (Bone marrow tyrosine kinase gene in chromosome X protein) (Epithelial and endothelial tyrosine kinase) (ETK) (NTK38)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase STYK1 (EC 2.7.10.2) (Novel oncogene with kinase domain) (Protein PK-unique) (Serine/threonine/tyrosine kinase 1)</t>
+  </si>
+  <si>
+    <t>Angiopoietin-1 receptor (EC 2.7.10.1) (Endothelial tyrosine kinase) (Tunica interna endothelial cell kinase) (Tyrosine kinase with Ig and EGF homology domains-2) (Tyrosine-protein kinase receptor TEK) (Tyrosine-protein kinase receptor TIE-2) (hTIE2) (p140 TEK) (CD antigen CD202b)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase BTK (EC 2.7.10.2) (Agammaglobulinemia tyrosine kinase) (ATK) (B-cell progenitor kinase) (BPK) (Bruton tyrosine kinase)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase receptor TYRO3 (EC 2.7.10.1) (Tyrosine-protein kinase BYK) (Tyrosine-protein kinase DTK) (Tyrosine-protein kinase RSE) (Tyrosine-protein kinase SKY) (Tyrosine-protein kinase TIF)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase ITK/TSK (EC 2.7.10.2) (Interleukin-2-inducible T-cell kinase) (IL-2-inducible T-cell kinase) (Kinase EMT) (T-cell-specific kinase) (Tyrosine-protein kinase Lyk)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Mer (EC 2.7.10.1) (Proto-oncogene c-Mer) (Receptor tyrosine kinase MerTK)</t>
+  </si>
+  <si>
+    <t>Protein-tyrosine kinase 6 (EC 2.7.10.2) (Breast tumor kinase) (Tyrosine-protein kinase BRK)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase ABL2 (EC 2.7.10.2) (Abelson murine leukemia viral oncogene homolog 2) (Abelson tyrosine-protein kinase 2) (Abelson-related gene protein) (Tyrosine-protein kinase ARG)</t>
+  </si>
+  <si>
+    <t>Megakaryocyte-associated tyrosine-protein kinase (EC 2.7.10.2) (CSK homologous kinase) (CHK) (Hematopoietic consensus tyrosine-lacking kinase) (Protein kinase HYL) (Tyrosine-protein kinase CTK)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase Tec (EC 2.7.10.2)</t>
+  </si>
+  <si>
+    <t>Tyrosine-protein kinase TXK (EC 2.7.10.2) (Protein-tyrosine kinase 4) (Resting lymphocyte kinase)</t>
+  </si>
+  <si>
+    <t>Receptor tyrosine-protein kinase erbB-4 (EC 2.7.10.1) (Proto-oncogene-like protein c-ErbB-4) (Tyrosine kinase-type cell surface receptor HER4) (p180erbB4) [Cleaved into: ERBB4 intracellular domain (4ICD) (E4ICD) (s80HER4)]</t>
+  </si>
+  <si>
+    <t>Focal adhesion kinase 1 (FADK 1) (EC 2.7.10.2) (Focal adhesion kinase-related nonkinase) (FRNK) (Protein phosphatase 1 regulatory subunit 71) (PPP1R71) (Protein-tyrosine kinase 2) (p125FAK) (pp125FAK)</t>
+  </si>
+  <si>
+    <t>Dual specificity protein kinase TTK (EC 2.7.12.1) (Phosphotyrosine picked threonine-protein kinase) (PYT)</t>
+  </si>
+  <si>
+    <t>Receptor tyrosine-protein kinase erbB-3 (EC 2.7.10.1) (Proto-oncogene-like protein c-ErbB-3) (Tyrosine kinase-type cell surface receptor HER3)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 10 (EC 2.7.10.1)</t>
+  </si>
+  <si>
+    <t>Dual specificity mitogen-activated protein kinase kinase 2 (MAP kinase kinase 2) (MAPKK 2) (EC 2.7.12.2) (ERK activator kinase 2) (MAPK/ERK kinase 2) (MEK 2)</t>
+  </si>
+  <si>
+    <t>Wee1-like protein kinase (WEE1hu) (EC 2.7.10.2) (Wee1A kinase)</t>
+  </si>
+  <si>
+    <t>Dual specificity testis-specific protein kinase 2 (EC 2.7.12.1) (Testicular protein kinase 2)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 6 (EC 2.7.10.1) (EPH homology kinase 2) (EHK-2) (EPH-like kinase 12) (EK12)</t>
+  </si>
+  <si>
+    <t>Dual specificity mitogen-activated protein kinase kinase 5 (MAP kinase kinase 5) (MAPKK 5) (EC 2.7.12.2) (MAPK/ERK kinase 5) (MEK 5)</t>
+  </si>
+  <si>
+    <t>Dual specificity mitogen-activated protein kinase kinase 1 (MAP kinase kinase 1) (MAPKK 1) (MKK1) (EC 2.7.12.2) (ERK activator kinase 1) (MAPK/ERK kinase 1) (MEK 1)</t>
+  </si>
+  <si>
+    <t>Insulin-like growth factor 1 receptor (EC 2.7.10.1) (Insulin-like growth factor I receptor) (IGF-I receptor) (CD antigen CD221) [Cleaved into: Insulin-like growth factor 1 receptor alpha chain; Insulin-like growth factor 1 receptor beta chain]</t>
+  </si>
+  <si>
+    <t>Platelet-derived growth factor receptor beta (PDGF-R-beta) (PDGFR-beta) (EC 2.7.10.1) (Beta platelet-derived growth factor receptor) (Beta-type platelet-derived growth factor receptor) (CD140 antigen-like family member B) (Platelet-derived growth factor receptor 1) (PDGFR-1) (CD antigen CD140b)</t>
+  </si>
+  <si>
+    <t>Insulin receptor (IR) (EC 2.7.10.1) (CD antigen CD220) [Cleaved into: Insulin receptor subunit alpha; Insulin receptor subunit beta]</t>
+  </si>
+  <si>
+    <t>Macrophage colony-stimulating factor 1 receptor (CSF-1 receptor) (CSF-1-R) (CSF-1R) (M-CSF-R) (EC 2.7.10.1) (Proto-oncogene c-Fms) (CD antigen CD115)</t>
+  </si>
+  <si>
+    <t>Insulin receptor-related protein (IRR) (EC 2.7.10.1) (IR-related receptor) [Cleaved into: Insulin receptor-related protein alpha chain; Insulin receptor-related protein beta chain]</t>
+  </si>
+  <si>
+    <t>Platelet-derived growth factor receptor alpha (PDGF-R-alpha) (PDGFR-alpha) (EC 2.7.10.1) (Alpha platelet-derived growth factor receptor) (Alpha-type platelet-derived growth factor receptor) (CD140 antigen-like family member A) (CD140a antigen) (Platelet-derived growth factor alpha receptor) (Platelet-derived growth factor receptor 2) (PDGFR-2) (CD antigen CD140a)</t>
+  </si>
+  <si>
+    <t>Fibroblast growth factor receptor 2 (FGFR-2) (EC 2.7.10.1) (K-sam) (KGFR) (Keratinocyte growth factor receptor) (CD antigen CD332)</t>
+  </si>
+  <si>
+    <t>Fibroblast growth factor receptor 4 (FGFR-4) (EC 2.7.10.1) (CD antigen CD334)</t>
+  </si>
+  <si>
+    <t>Fibroblast growth factor receptor 3 (FGFR-3) (EC 2.7.10.1) (CD antigen CD333)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 5 (EC 2.7.10.1) (Brain-specific kinase) (EPH homology kinase 1) (EHK-1) (EPH-like kinase 7) (EK7) (hEK7)</t>
+  </si>
+  <si>
+    <t>Dual specificity testis-specific protein kinase 1 (EC 2.7.12.1) (Testicular protein kinase 1)</t>
+  </si>
+  <si>
+    <t>Ephrin type-A receptor 7 (EC 2.7.10.1) (EPH homology kinase 3) (EHK-3) (EPH-like kinase 11) (EK11) (hEK11)</t>
+  </si>
+  <si>
+    <t>Wee1-like protein kinase 2 (EC 2.7.10.2) (Wee1-like protein kinase 1B) (Wee1B kinase)</t>
+  </si>
+  <si>
+    <t>Dual specificity mitogen-activated protein kinase kinase 7 (MAP kinase kinase 7) (MAPKK 7) (EC 2.7.12.2) (JNK-activating kinase 2) (MAPK/ERK kinase 7) (MEK 7) (Stress-activated protein kinase kinase 4) (SAPK kinase 4) (SAPKK-4) (SAPKK4) (c-Jun N-terminal kinase kinase 2) (JNK kinase 2) (JNKK 2)</t>
   </si>
 </sst>
 </file>
@@ -949,694 +1165,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CD97C7-105A-B54C-9262-30CB683F87A1}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
         <v>168</v>
       </c>
-      <c r="B58" t="s">
-        <v>169</v>
-      </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Supplementary_materials/Supplementary Table 4.xlsx
+++ b/Supplementary_materials/Supplementary Table 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonguo/myDocuments/git_local_repo/COVIDnetwork/Supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A0131-20F6-B140-ADB7-92FDF3AB4473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF152F78-DD35-7643-9E3E-F275A4BB7FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="1740" windowWidth="27640" windowHeight="16940" xr2:uid="{F0CD8362-DBC8-CA48-8559-1CEDD5DB8273}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -855,7 +855,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1167,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CD97C7-105A-B54C-9262-30CB683F87A1}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
